--- a/Git環境構築.xlsx
+++ b/Git環境構築.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Git-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA853C-68C0-4851-889B-E1FB805884B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC74493-066C-4CC7-86B9-A66C01B02AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2310" windowWidth="25380" windowHeight="16065" activeTab="1" xr2:uid="{38EFE027-1E8F-4C6C-9E10-2DB91FAE6B08}"/>
+    <workbookView xWindow="22450" yWindow="-6590" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{38EFE027-1E8F-4C6C-9E10-2DB91FAE6B08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="リポジトリ構成" sheetId="2" r:id="rId2"/>
+    <sheet name="Gitインストール方法" sheetId="3" r:id="rId1"/>
+    <sheet name="TortoiseGitインストール方法" sheetId="5" r:id="rId2"/>
+    <sheet name="TortoiseGit日本語化" sheetId="6" r:id="rId3"/>
+    <sheet name="リポジトリ構成案" sheetId="2" r:id="rId4"/>
+    <sheet name="フォルダ-リポジトリ構成" sheetId="4" r:id="rId5"/>
+    <sheet name="(修正版)フォルダ-リポジトリ構成" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>https://qiita.com/devzooiiooz/items/56a02342d9d65d79f6c3</t>
     <phoneticPr fontId="1"/>
@@ -153,12 +158,149 @@
     <t>■GitとSubversionの構造的な違い｜GitのブランチはSubversionのブランチとは全く違うモノ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>01.ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02.ソースコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03.実行ファイル</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住之江</t>
+    <rPh sb="0" eb="3">
+      <t>スミノエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳島</t>
+    <rPh sb="0" eb="2">
+      <t>トクシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01.システム設計</t>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02.機能仕様書</t>
+    <rPh sb="3" eb="8">
+      <t>キノウシヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03.プログラム設計書</t>
+    <rPh sb="8" eb="11">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04.単体テスト設計書</t>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05.システムテスト設計書</t>
+    <rPh sb="10" eb="13">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01.AP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02.Web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03.FT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04.HT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05.Tool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeasReg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CcCnv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RtReg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeasData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aggregation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Histgram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貝塚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成管理</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#リモートリポジトリ構成(Git : ベアリポジトリ, SVN : リモートリポジトリ)#</t>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#リモートリポジトリ)#</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,20 +334,339 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -218,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +689,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -235,6 +855,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF000099"/>
+      <color rgb="FF3366FF"/>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -292,6 +923,3130 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05280C65-5B59-18EA-4993-6FAD9F907E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5743575" y="1022350"/>
+          <a:ext cx="600075" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301874</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8880A6C1-0619-AA28-0DE6-63B35212E789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5749927" y="2495550"/>
+          <a:ext cx="565397" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1007924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D415B369-142B-7CFB-0B0E-E601E5DD6D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5808524" y="2752725"/>
+          <a:ext cx="868500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>974724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E54484-B6B4-23F8-202F-2B6FA2704203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4929247" y="1187450"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>987424</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FF592F-3C6C-4E80-8113-9C5CF96FBB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4948297" y="2568575"/>
+          <a:ext cx="839727" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A39225-3517-4A1C-8674-F56F32FA1CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768977" y="6181725"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>682624</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4E80BC-2AA7-40B9-A7DF-A22B96929D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5827574" y="6372225"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1006474</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E8D401-61A5-4970-83D9-F6192EF5A66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4967347" y="6245225"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936F994-5B5E-4A5F-6307-4438F30830E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5797550" y="1387475"/>
+          <a:ext cx="860425" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606425" cy="519225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA17091-2CFB-4990-9521-4A6EE46987A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5746750" y="1022350"/>
+          <a:ext cx="606425" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408C9A30-DD68-40A4-A4E4-260FA71E8AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5749927" y="2498725"/>
+          <a:ext cx="565397" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1007924</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E09B03-14AC-4831-B341-B509DF66548F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5808524" y="2752725"/>
+          <a:ext cx="868500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846077" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC4C7FB-E0EF-4FE7-BFBE-D037327179B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4929247" y="1190625"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="882650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0444E7-A218-4076-86E6-BA497C9DEBBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4948297" y="2568575"/>
+          <a:ext cx="839727" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="450850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E8C11-574A-495E-9E74-56D1E2AF08F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768977" y="6169025"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D22816-5DE4-475D-88AE-09696E32DAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5827574" y="6359525"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F99D749-D773-423D-B7BF-A893A3799EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4967347" y="6232525"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="873125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4234B0C-A212-456A-A895-93FCFD4CFB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5800725" y="1390650"/>
+          <a:ext cx="857250" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606425" cy="519225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6539DB62-D7E0-4374-84B7-75A324BBDE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5746750" y="8007350"/>
+          <a:ext cx="606425" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF07457-4AAE-445C-B8EC-3ABBED59A987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5749927" y="9667875"/>
+          <a:ext cx="565397" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1007924</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E802F8C5-18A9-4B57-8E88-6D202F33D5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5808524" y="9921875"/>
+          <a:ext cx="868500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846077" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DDA16A-0F13-43DA-8931-E0A6213994AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4929247" y="8175625"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="882650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E2D339-7DCA-40BB-B9CE-5D4E3EE5351E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4948297" y="9737725"/>
+          <a:ext cx="839727" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="450850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22B7209-F99B-4FB0-9812-4BADBB67144A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768977" y="13535025"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9317EF3-80F1-4BF6-AE3F-07C081F7100F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5827574" y="13725525"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBFF754-636F-42E5-BF05-5A031B58AE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4967347" y="13598525"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="873125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C21645-B201-427C-B252-7C4976C68E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5800725" y="8375650"/>
+          <a:ext cx="857250" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F911E996-BD6E-43A2-9F15-D8C51822C299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5187950" y="1581150"/>
+          <a:ext cx="606425" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1521074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88034C5-3BED-447B-9F1A-ECCB45EB59DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5191127" y="3121025"/>
+          <a:ext cx="565397" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>969824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEDD920-057F-4CF4-A491-74A23C1A7803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6049824" y="3648075"/>
+          <a:ext cx="868500" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>974724</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA9D756-010D-43BD-899C-CEA3DB62F721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370447" y="1749425"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>987424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80348415-661D-45D2-AE91-8A3CB20206F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4389497" y="3190875"/>
+          <a:ext cx="839727" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1540124</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D084789-B9FD-42BB-9B4E-509CF610B13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5210177" y="6854825"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E23D35-3392-4E7E-8FEF-CD49174B38DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5268774" y="7045325"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1006474</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482A0ECE-2665-4F96-874B-628C0A701D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4408547" y="6918325"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A784AA9D-AF5E-485A-9C0F-330357EFEEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6042025" y="2124075"/>
+          <a:ext cx="857250" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606425" cy="519225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF5F6DA-1254-4616-A69A-6A49A29B37C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5187950" y="8896350"/>
+          <a:ext cx="606425" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D0566F-636A-445B-A15E-A449FF00116F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5191127" y="10436225"/>
+          <a:ext cx="565397" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1007924</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0580B0AD-B009-4CBB-BC41-F509483B5723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5249724" y="10690225"/>
+          <a:ext cx="868500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846077" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E98FC7-ABCA-47AE-9A74-39D3C947B995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370447" y="9064625"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="882650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC02A0C5-C20C-4767-A522-452AD1DCFECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4389497" y="10506075"/>
+          <a:ext cx="839727" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="450850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC384FE-C34B-4BFE-9BD8-E8B100EDAC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5210177" y="14182725"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40677741-E2F2-4F7B-B9CE-123A5AC5B43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5268774" y="14373225"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F33644A-A859-40CF-9F77-EE6CF8CF9D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4408547" y="14246225"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="873125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1181644B-5E90-4987-81F2-BC008B58EBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5241925" y="9264650"/>
+          <a:ext cx="857250" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606425" cy="519225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27A260E-5ABA-42CD-AEA0-1ADED2C24E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5187950" y="16224250"/>
+          <a:ext cx="606425" cy="519225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>949327</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD43C334-93BE-4EC8-83E6-3025B42E1194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5191127" y="17764125"/>
+          <a:ext cx="565397" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1007924</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2EE3FE-7436-425B-9937-03B631EB5C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5249724" y="18018125"/>
+          <a:ext cx="868500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128647</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846077" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F88C08-9106-43C6-B68B-8527D8290CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370447" y="16392525"/>
+          <a:ext cx="846077" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147697</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="882650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C071582-3852-4EE9-BD27-3172AA482C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4389497" y="17833975"/>
+          <a:ext cx="839727" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>968377</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565397" cy="450850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24" descr="雑学】自分の開発をgithubで管理してみよう！">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042D51C6-B5E3-4BAA-BB24-FDBB950C65C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5210177" y="21510625"/>
+          <a:ext cx="565397" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1026974</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868500" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="TortoiseGitでオーバーレイアイコンが表示されない (変わらない) ので上限を増やして解決 | urashita.com 浦下.com  (ウラシタドットコム)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7744F8C8-736C-485F-ACE0-DD3B103C79FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5268774" y="21701125"/>
+          <a:ext cx="868500" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166747</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="839727" cy="869950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="データベース設定 | 無料のアイコン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF98CF02-EDDD-4EF3-8D82-21CC784A2A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4408547" y="21574125"/>
+          <a:ext cx="839727" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="873125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E951BA-1579-40DB-8B1B-0AB93794C2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5241925" y="16592550"/>
+          <a:ext cx="857250" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -591,50 +4346,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134272CE-DA59-4305-9FB4-9CAB030C1C2E}">
-  <dimension ref="A2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A320F9-AC63-4A58-A65C-46E617949EAF}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{DB513683-C7CF-4C18-837C-5F910574F5DC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C54FA86-931A-416F-9C33-22CF677AC8EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB6066-5CA9-4CF4-B65E-6E82D1C03E18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD94CA5-473E-43F1-BAAF-0C7F78FBA86C}">
   <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -693,4 +4450,3373 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DBEF72-BA56-4CBE-A79E-5B207B578047}">
+  <dimension ref="A1:P94"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:16" ht="24" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="2:11" ht="30" x14ac:dyDescent="0.4">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="2:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="2:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D4ACD0-0A4D-4738-932E-24B2D80A5819}">
+  <dimension ref="A1:S112"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="55"/>
+    </row>
+    <row r="20" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="55"/>
+    </row>
+    <row r="22" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="55"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="48"/>
+    </row>
+    <row r="29" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="48"/>
+    </row>
+    <row r="31" spans="1:15" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="48"/>
+    </row>
+    <row r="33" spans="1:19" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="48"/>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="7"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="24.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="7"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="7"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L25:L26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134272CE-DA59-4305-9FB4-9CAB030C1C2E}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{DB513683-C7CF-4C18-837C-5F910574F5DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Git環境構築.xlsx
+++ b/Git環境構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Git-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FEA34-F055-46B6-9204-1AFC50CD62E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC81F7-1CFD-4CCC-AF04-14B07BE0D86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22080" activeTab="4" xr2:uid="{38EFE027-1E8F-4C6C-9E10-2DB91FAE6B08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22080" activeTab="6" xr2:uid="{38EFE027-1E8F-4C6C-9E10-2DB91FAE6B08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gitインストール方法" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="TortoiseGit日本語化" sheetId="6" r:id="rId3"/>
     <sheet name="リポジトリ構成案" sheetId="2" r:id="rId4"/>
     <sheet name="フォルダ-リポジトリ構成" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="(TortoiseGit)ローカル-リモートリポジトリ作成" sheetId="8" r:id="rId6"/>
+    <sheet name="Gitホスティングサービス" sheetId="9" r:id="rId7"/>
+    <sheet name="備考" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,20 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>https://qiita.com/devzooiiooz/items/56a02342d9d65d79f6c3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gitのベアリポジトリとノンベアリポジトリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■リポジトリ構成イメージ</t>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -368,12 +363,172 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リモートリポジトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記フォルダ下に[.git]フォルダが作成されておりノンベアリポジトリとして作成されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[.git]フォルダ下に管理用のファイルが作成されていることを確認</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Bareを生成]からチェックが外れていることを確認し、[OK]を押下。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Git ここにリポジトリを作成(Y)]を選択し、ローカルリポジトリを作成</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリを作成するフォルダに移動し、選択右クリックでメニューを開く</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■リポジトリ構成案</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://zenn.dev/kaityo256/articles/objects_of_git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/tatane616/items/dbad66179754be57d2e2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■(参考).gitディレクトリの中身を見てみる</t>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■(参考)Gitのオブジェクトの中身</t>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Gitのホスティングサービスとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitによるクラウドベースのバージョン管理サービスです。</t>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ホスティングサービスとは「利用するサーバーを貸し出すサービス」のこと</t>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +635,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,13 +1073,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -910,8 +1091,11 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,17 +1109,14 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,9 +1127,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FF3366FF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF0000CC"/>
@@ -972,14 +1153,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>10317</xdr:rowOff>
+      <xdr:colOff>375655</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,7 +1209,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>72017</xdr:rowOff>
+      <xdr:rowOff>72016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,7 +1270,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1521074</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>33957</xdr:rowOff>
+      <xdr:rowOff>33956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,7 +1329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1654</xdr:colOff>
+      <xdr:colOff>1653</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>72472</xdr:rowOff>
     </xdr:to>
@@ -1333,7 +1514,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1540124</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>2485</xdr:rowOff>
+      <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1392,7 +1573,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>60323</xdr:colOff>
+      <xdr:colOff>60322</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>93456</xdr:rowOff>
     </xdr:to>
@@ -1516,7 +1697,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71520</xdr:rowOff>
+      <xdr:rowOff>71519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2577,6 +2758,407 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50B47F9-7966-9E15-E511-48B9EE82E99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="6429375"/>
+          <a:ext cx="5124450" cy="2018342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6AA25C-E8B3-014B-DC8B-7771557774FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="457201"/>
+          <a:ext cx="2933700" cy="5772054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>664191</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4970DDC1-3D96-4375-917A-734399BA9280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9048750"/>
+          <a:ext cx="5458441" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AFBAB0-16C8-1256-E7C9-F4978666C98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="695326"/>
+          <a:ext cx="5581650" cy="1129016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A822F8A6-7A37-094F-A7BE-12E9E4DF8236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="476250"/>
+          <a:ext cx="5343525" cy="1075427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7534B0-F5AC-477A-93B0-D82D3225A0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2152650"/>
+          <a:ext cx="2933700" cy="5772054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322818</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE74EE0-356C-42BD-ACC6-C951B67F454A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="8324850"/>
+          <a:ext cx="5113893" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683777</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0A7B05-C5E8-D792-A111-B8036D6587D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10715625"/>
+          <a:ext cx="5478027" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDFE2E5-BE21-9BE5-4F2D-8C814F90E449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13344525"/>
+          <a:ext cx="5486892" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2891,7 +3473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C54FA86-931A-416F-9C33-22CF677AC8EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -2917,61 +3501,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD94CA5-473E-43F1-BAAF-0C7F78FBA86C}">
   <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="1" t="s">
-        <v>10</v>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1DF05494-90DC-4083-9BF7-BFB51FE94CE6}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{7C238881-E873-4C17-B5E5-A4D9074D63CA}"/>
-    <hyperlink ref="C39" r:id="rId3" xr:uid="{7D00D53C-FDD9-46B0-A47D-574DE8709F0C}"/>
+    <hyperlink ref="B39" r:id="rId1" xr:uid="{1DF05494-90DC-4083-9BF7-BFB51FE94CE6}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{7C238881-E873-4C17-B5E5-A4D9074D63CA}"/>
+    <hyperlink ref="C36" r:id="rId3" xr:uid="{7D00D53C-FDD9-46B0-A47D-574DE8709F0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -2983,19 +3567,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D4ACD0-0A4D-4738-932E-24B2D80A5819}">
   <dimension ref="A1:W368"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="5.625" customWidth="1"/>
+    <col min="4" max="5" width="4.625" customWidth="1"/>
     <col min="6" max="6" width="1.25" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="8" max="9" width="4.625" customWidth="1"/>
     <col min="10" max="10" width="1.25" customWidth="1"/>
     <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3.625" customWidth="1"/>
@@ -3009,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3053,12 +3637,12 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10"/>
-      <c r="B3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3077,10 +3661,10 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3121,15 +3705,15 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="14"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="55" t="s">
-        <v>15</v>
+      <c r="F6" s="44"/>
+      <c r="G6" s="49" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3145,14 +3729,14 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="25"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="15"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3199,9 +3783,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="16"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46" t="s">
-        <v>12</v>
+      <c r="J9" s="43"/>
+      <c r="K9" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3224,7 +3808,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="17"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="47"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="20"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -3272,8 +3856,8 @@
       <c r="L12" s="21"/>
       <c r="M12" s="24"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="43" t="s">
-        <v>18</v>
+      <c r="O12" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -3296,7 +3880,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="23"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="44"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -3344,8 +3928,8 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="41"/>
-      <c r="S15" s="43" t="s">
-        <v>47</v>
+      <c r="S15" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="T15" s="7"/>
     </row>
@@ -3368,7 +3952,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3408,8 +3992,8 @@
       <c r="L18" s="4"/>
       <c r="M18" s="24"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="43" t="s">
-        <v>19</v>
+      <c r="O18" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -3432,7 +4016,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="23"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="44"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9"/>
@@ -3458,8 +4042,8 @@
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="41"/>
-      <c r="S20" s="43" t="s">
-        <v>48</v>
+      <c r="S20" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="T20" s="7"/>
     </row>
@@ -3482,7 +4066,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="44"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3522,8 +4106,8 @@
       <c r="L23" s="4"/>
       <c r="M23" s="24"/>
       <c r="N23" s="28"/>
-      <c r="O23" s="43" t="s">
-        <v>20</v>
+      <c r="O23" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -3546,7 +4130,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="23"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="44"/>
+      <c r="O24" s="46"/>
       <c r="P24" s="38"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
@@ -3572,8 +4156,8 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="41"/>
-      <c r="S25" s="43" t="s">
-        <v>49</v>
+      <c r="S25" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="T25" s="7"/>
     </row>
@@ -3596,7 +4180,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="44"/>
+      <c r="S26" s="46"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3636,8 +4220,8 @@
       <c r="L28" s="4"/>
       <c r="M28" s="24"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="43" t="s">
-        <v>21</v>
+      <c r="O28" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -3660,7 +4244,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="23"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="44"/>
+      <c r="O29" s="46"/>
       <c r="P29" s="38"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="9"/>
@@ -3686,8 +4270,8 @@
       <c r="P30" s="39"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="41"/>
-      <c r="S30" s="43" t="s">
-        <v>50</v>
+      <c r="S30" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="T30" s="7"/>
     </row>
@@ -3710,7 +4294,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="44"/>
+      <c r="S31" s="46"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3750,8 +4334,8 @@
       <c r="L33" s="4"/>
       <c r="M33" s="24"/>
       <c r="N33" s="28"/>
-      <c r="O33" s="43" t="s">
-        <v>22</v>
+      <c r="O33" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -3774,7 +4358,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="44"/>
+      <c r="O34" s="46"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="9"/>
@@ -3800,8 +4384,8 @@
       <c r="P35" s="39"/>
       <c r="Q35" s="40"/>
       <c r="R35" s="41"/>
-      <c r="S35" s="43" t="s">
-        <v>51</v>
+      <c r="S35" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="T35" s="7"/>
     </row>
@@ -3824,7 +4408,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="44"/>
+      <c r="S36" s="46"/>
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -3892,9 +4476,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46" t="s">
-        <v>13</v>
+      <c r="J40" s="43"/>
+      <c r="K40" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -3917,7 +4501,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="17"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="47"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="20"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3964,9 +4548,9 @@
       <c r="K43" s="4"/>
       <c r="L43" s="21"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="43" t="s">
-        <v>23</v>
+      <c r="N43" s="6"/>
+      <c r="O43" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -3989,7 +4573,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="22"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="44"/>
+      <c r="O44" s="46"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="30"/>
       <c r="R44" s="6"/>
@@ -4037,8 +4621,8 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="36"/>
-      <c r="S46" s="43" t="s">
-        <v>28</v>
+      <c r="S46" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="T46" s="7"/>
     </row>
@@ -4061,7 +4645,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="30"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="44"/>
+      <c r="S47" s="46"/>
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4105,8 +4689,8 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="36"/>
-      <c r="S49" s="43" t="s">
-        <v>30</v>
+      <c r="S49" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="T49" s="7"/>
     </row>
@@ -4129,7 +4713,7 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="30"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="44"/>
+      <c r="S50" s="46"/>
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4173,8 +4757,8 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="36"/>
-      <c r="S52" s="43" t="s">
-        <v>29</v>
+      <c r="S52" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T52" s="7"/>
     </row>
@@ -4197,7 +4781,7 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="44"/>
+      <c r="S53" s="46"/>
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -4281,8 +4865,8 @@
       <c r="L57" s="4"/>
       <c r="M57" s="24"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="43" t="s">
-        <v>24</v>
+      <c r="O57" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
@@ -4304,8 +4888,8 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="44"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="30"/>
       <c r="R58" s="6"/>
@@ -4353,8 +4937,8 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="31"/>
       <c r="R60" s="36"/>
-      <c r="S60" s="43" t="s">
-        <v>31</v>
+      <c r="S60" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="T60" s="7"/>
     </row>
@@ -4377,7 +4961,7 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="30"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="44"/>
+      <c r="S61" s="46"/>
       <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4421,8 +5005,8 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="31"/>
       <c r="R63" s="36"/>
-      <c r="S63" s="43" t="s">
-        <v>32</v>
+      <c r="S63" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="T63" s="7"/>
     </row>
@@ -4445,7 +5029,7 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="30"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="44"/>
+      <c r="S64" s="46"/>
       <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4489,8 +5073,8 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="36"/>
-      <c r="S66" s="43" t="s">
-        <v>33</v>
+      <c r="S66" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="T66" s="7"/>
     </row>
@@ -4513,7 +5097,7 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="44"/>
+      <c r="S67" s="46"/>
       <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -4597,8 +5181,8 @@
       <c r="L71" s="4"/>
       <c r="M71" s="24"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="43" t="s">
-        <v>25</v>
+      <c r="O71" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -4621,7 +5205,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="23"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="44"/>
+      <c r="O72" s="46"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="30"/>
       <c r="R72" s="7"/>
@@ -4647,8 +5231,8 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="36"/>
-      <c r="S73" s="43" t="s">
-        <v>37</v>
+      <c r="S73" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="T73" s="7"/>
     </row>
@@ -4671,7 +5255,7 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="30"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="44"/>
+      <c r="S74" s="46"/>
       <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4715,8 +5299,8 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="31"/>
       <c r="R76" s="36"/>
-      <c r="S76" s="43" t="s">
-        <v>36</v>
+      <c r="S76" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="T76" s="7"/>
     </row>
@@ -4739,7 +5323,7 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="44"/>
+      <c r="S77" s="46"/>
       <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4779,8 +5363,8 @@
       <c r="L79" s="4"/>
       <c r="M79" s="24"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="43" t="s">
-        <v>26</v>
+      <c r="O79" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
@@ -4803,7 +5387,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="23"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="44"/>
+      <c r="O80" s="46"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="30"/>
       <c r="R80" s="7"/>
@@ -4829,8 +5413,8 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="31"/>
       <c r="R81" s="36"/>
-      <c r="S81" s="43" t="s">
-        <v>38</v>
+      <c r="S81" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="T81" s="7"/>
     </row>
@@ -4853,7 +5437,7 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="30"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="44"/>
+      <c r="S82" s="46"/>
       <c r="T82" s="7"/>
     </row>
     <row r="83" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4897,8 +5481,8 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="31"/>
       <c r="R84" s="36"/>
-      <c r="S84" s="43" t="s">
-        <v>39</v>
+      <c r="S84" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="T84" s="7"/>
     </row>
@@ -4921,7 +5505,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="44"/>
+      <c r="S85" s="46"/>
       <c r="T85" s="7"/>
     </row>
     <row r="86" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4961,8 +5545,8 @@
       <c r="L87" s="4"/>
       <c r="M87" s="24"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="43" t="s">
-        <v>27</v>
+      <c r="O87" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -4985,7 +5569,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="44"/>
+      <c r="O88" s="46"/>
       <c r="P88" s="29"/>
       <c r="Q88" s="30"/>
       <c r="R88" s="7"/>
@@ -5011,8 +5595,8 @@
       <c r="P89" s="6"/>
       <c r="Q89" s="31"/>
       <c r="R89" s="36"/>
-      <c r="S89" s="43" t="s">
-        <v>40</v>
+      <c r="S89" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="T89" s="7"/>
     </row>
@@ -5035,7 +5619,7 @@
       <c r="P90" s="6"/>
       <c r="Q90" s="30"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="44"/>
+      <c r="S90" s="46"/>
       <c r="T90" s="7"/>
     </row>
     <row r="91" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5079,8 +5663,8 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="31"/>
       <c r="R92" s="36"/>
-      <c r="S92" s="43" t="s">
-        <v>41</v>
+      <c r="S92" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="T92" s="7"/>
     </row>
@@ -5103,7 +5687,7 @@
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="44"/>
+      <c r="S93" s="46"/>
       <c r="T93" s="7"/>
     </row>
     <row r="94" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -5171,9 +5755,9 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="19"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="46" t="s">
-        <v>14</v>
+      <c r="J97" s="43"/>
+      <c r="K97" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -5196,7 +5780,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="47"/>
+      <c r="K98" s="48"/>
       <c r="L98" s="20"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -5244,8 +5828,8 @@
       <c r="L100" s="4"/>
       <c r="M100" s="24"/>
       <c r="N100" s="28"/>
-      <c r="O100" s="43" t="s">
-        <v>23</v>
+      <c r="O100" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
@@ -5268,7 +5852,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="23"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="44"/>
+      <c r="O101" s="46"/>
       <c r="P101" s="29"/>
       <c r="Q101" s="30"/>
       <c r="R101" s="7"/>
@@ -5294,8 +5878,8 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="31"/>
       <c r="R102" s="36"/>
-      <c r="S102" s="43" t="s">
-        <v>42</v>
+      <c r="S102" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="T102" s="7"/>
     </row>
@@ -5318,7 +5902,7 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="29"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="44"/>
+      <c r="S103" s="46"/>
       <c r="T103" s="7"/>
     </row>
     <row r="104" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5358,8 +5942,8 @@
       <c r="L105" s="4"/>
       <c r="M105" s="24"/>
       <c r="N105" s="28"/>
-      <c r="O105" s="43" t="s">
-        <v>24</v>
+      <c r="O105" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -5382,7 +5966,7 @@
       <c r="L106" s="4"/>
       <c r="M106" s="23"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="44"/>
+      <c r="O106" s="46"/>
       <c r="P106" s="29"/>
       <c r="Q106" s="30"/>
       <c r="R106" s="7"/>
@@ -5408,8 +5992,8 @@
       <c r="P107" s="6"/>
       <c r="Q107" s="31"/>
       <c r="R107" s="36"/>
-      <c r="S107" s="43" t="s">
-        <v>43</v>
+      <c r="S107" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="T107" s="7"/>
     </row>
@@ -5432,7 +6016,7 @@
       <c r="P108" s="6"/>
       <c r="Q108" s="29"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="44"/>
+      <c r="S108" s="46"/>
       <c r="T108" s="7"/>
     </row>
     <row r="109" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5472,8 +6056,8 @@
       <c r="L110" s="4"/>
       <c r="M110" s="24"/>
       <c r="N110" s="28"/>
-      <c r="O110" s="43" t="s">
-        <v>25</v>
+      <c r="O110" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -5497,7 +6081,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="23"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="44"/>
+      <c r="O111" s="46"/>
       <c r="P111" s="29"/>
       <c r="Q111" s="30"/>
       <c r="R111" s="7"/>
@@ -5524,8 +6108,8 @@
       <c r="P112" s="6"/>
       <c r="Q112" s="31"/>
       <c r="R112" s="36"/>
-      <c r="S112" s="43" t="s">
-        <v>44</v>
+      <c r="S112" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="T112" s="7"/>
     </row>
@@ -5548,7 +6132,7 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="44"/>
+      <c r="S113" s="46"/>
       <c r="T113" s="7"/>
     </row>
     <row r="114" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5589,8 +6173,8 @@
       <c r="L115" s="4"/>
       <c r="M115" s="24"/>
       <c r="N115" s="28"/>
-      <c r="O115" s="43" t="s">
-        <v>26</v>
+      <c r="O115" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
@@ -5613,7 +6197,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="23"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="44"/>
+      <c r="O116" s="46"/>
       <c r="P116" s="29"/>
       <c r="Q116" s="30"/>
       <c r="R116" s="7"/>
@@ -5639,8 +6223,8 @@
       <c r="P117" s="6"/>
       <c r="Q117" s="31"/>
       <c r="R117" s="36"/>
-      <c r="S117" s="43" t="s">
-        <v>45</v>
+      <c r="S117" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="T117" s="7"/>
     </row>
@@ -5663,7 +6247,7 @@
       <c r="P118" s="6"/>
       <c r="Q118" s="29"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="44"/>
+      <c r="S118" s="46"/>
       <c r="T118" s="7"/>
     </row>
     <row r="119" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5703,8 +6287,8 @@
       <c r="L120" s="4"/>
       <c r="M120" s="24"/>
       <c r="N120" s="28"/>
-      <c r="O120" s="43" t="s">
-        <v>27</v>
+      <c r="O120" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
@@ -5727,7 +6311,7 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="6"/>
-      <c r="O121" s="44"/>
+      <c r="O121" s="46"/>
       <c r="P121" s="29"/>
       <c r="Q121" s="30"/>
       <c r="R121" s="7"/>
@@ -5753,8 +6337,8 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="31"/>
       <c r="R122" s="36"/>
-      <c r="S122" s="43" t="s">
-        <v>46</v>
+      <c r="S122" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="T122" s="7"/>
     </row>
@@ -5777,7 +6361,7 @@
       <c r="P123" s="6"/>
       <c r="Q123" s="29"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="44"/>
+      <c r="S123" s="46"/>
       <c r="T123" s="7"/>
     </row>
     <row r="124" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -5837,9 +6421,9 @@
       <c r="C127" s="10"/>
       <c r="D127" s="14"/>
       <c r="E127" s="27"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="55" t="s">
-        <v>16</v>
+      <c r="F127" s="44"/>
+      <c r="G127" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -5862,7 +6446,7 @@
       <c r="D128" s="10"/>
       <c r="E128" s="25"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="56"/>
+      <c r="G128" s="50"/>
       <c r="H128" s="15"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -5909,9 +6493,9 @@
       <c r="G130" s="3"/>
       <c r="H130" s="16"/>
       <c r="I130" s="19"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="46" t="s">
-        <v>12</v>
+      <c r="J130" s="43"/>
+      <c r="K130" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -5934,7 +6518,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="17"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="47"/>
+      <c r="K131" s="48"/>
       <c r="L131" s="20"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -5982,8 +6566,8 @@
       <c r="L133" s="21"/>
       <c r="M133" s="24"/>
       <c r="N133" s="28"/>
-      <c r="O133" s="43" t="s">
-        <v>18</v>
+      <c r="O133" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -6006,7 +6590,7 @@
       <c r="L134" s="4"/>
       <c r="M134" s="23"/>
       <c r="N134" s="6"/>
-      <c r="O134" s="44"/>
+      <c r="O134" s="46"/>
       <c r="P134" s="38"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
@@ -6054,8 +6638,8 @@
       <c r="P136" s="39"/>
       <c r="Q136" s="40"/>
       <c r="R136" s="41"/>
-      <c r="S136" s="43" t="s">
-        <v>47</v>
+      <c r="S136" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="T136" s="7"/>
     </row>
@@ -6078,7 +6662,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="9"/>
-      <c r="S137" s="44"/>
+      <c r="S137" s="46"/>
       <c r="T137" s="7"/>
     </row>
     <row r="138" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6118,8 +6702,8 @@
       <c r="L139" s="4"/>
       <c r="M139" s="24"/>
       <c r="N139" s="28"/>
-      <c r="O139" s="43" t="s">
-        <v>19</v>
+      <c r="O139" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
@@ -6142,7 +6726,7 @@
       <c r="L140" s="4"/>
       <c r="M140" s="23"/>
       <c r="N140" s="6"/>
-      <c r="O140" s="44"/>
+      <c r="O140" s="46"/>
       <c r="P140" s="38"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="9"/>
@@ -6168,8 +6752,8 @@
       <c r="P141" s="39"/>
       <c r="Q141" s="40"/>
       <c r="R141" s="41"/>
-      <c r="S141" s="43" t="s">
-        <v>48</v>
+      <c r="S141" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="T141" s="7"/>
     </row>
@@ -6192,7 +6776,7 @@
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
       <c r="R142" s="9"/>
-      <c r="S142" s="44"/>
+      <c r="S142" s="46"/>
       <c r="T142" s="7"/>
     </row>
     <row r="143" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6232,8 +6816,8 @@
       <c r="L144" s="4"/>
       <c r="M144" s="24"/>
       <c r="N144" s="28"/>
-      <c r="O144" s="43" t="s">
-        <v>20</v>
+      <c r="O144" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
@@ -6256,7 +6840,7 @@
       <c r="L145" s="4"/>
       <c r="M145" s="23"/>
       <c r="N145" s="6"/>
-      <c r="O145" s="44"/>
+      <c r="O145" s="46"/>
       <c r="P145" s="38"/>
       <c r="Q145" s="8"/>
       <c r="R145" s="9"/>
@@ -6282,8 +6866,8 @@
       <c r="P146" s="39"/>
       <c r="Q146" s="40"/>
       <c r="R146" s="41"/>
-      <c r="S146" s="43" t="s">
-        <v>49</v>
+      <c r="S146" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="T146" s="7"/>
     </row>
@@ -6306,7 +6890,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="9"/>
-      <c r="S147" s="44"/>
+      <c r="S147" s="46"/>
       <c r="T147" s="7"/>
     </row>
     <row r="148" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6346,8 +6930,8 @@
       <c r="L149" s="4"/>
       <c r="M149" s="24"/>
       <c r="N149" s="28"/>
-      <c r="O149" s="43" t="s">
-        <v>21</v>
+      <c r="O149" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
@@ -6370,7 +6954,7 @@
       <c r="L150" s="4"/>
       <c r="M150" s="23"/>
       <c r="N150" s="6"/>
-      <c r="O150" s="44"/>
+      <c r="O150" s="46"/>
       <c r="P150" s="38"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="9"/>
@@ -6396,8 +6980,8 @@
       <c r="P151" s="39"/>
       <c r="Q151" s="40"/>
       <c r="R151" s="41"/>
-      <c r="S151" s="43" t="s">
-        <v>50</v>
+      <c r="S151" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="T151" s="7"/>
     </row>
@@ -6420,7 +7004,7 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="9"/>
-      <c r="S152" s="44"/>
+      <c r="S152" s="46"/>
       <c r="T152" s="7"/>
     </row>
     <row r="153" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6460,8 +7044,8 @@
       <c r="L154" s="4"/>
       <c r="M154" s="24"/>
       <c r="N154" s="28"/>
-      <c r="O154" s="43" t="s">
-        <v>22</v>
+      <c r="O154" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
@@ -6484,7 +7068,7 @@
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="6"/>
-      <c r="O155" s="44"/>
+      <c r="O155" s="46"/>
       <c r="P155" s="38"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="9"/>
@@ -6510,8 +7094,8 @@
       <c r="P156" s="39"/>
       <c r="Q156" s="40"/>
       <c r="R156" s="41"/>
-      <c r="S156" s="43" t="s">
-        <v>51</v>
+      <c r="S156" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="T156" s="7"/>
     </row>
@@ -6534,7 +7118,7 @@
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
       <c r="R157" s="9"/>
-      <c r="S157" s="44"/>
+      <c r="S157" s="46"/>
       <c r="T157" s="7"/>
     </row>
     <row r="158" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -6602,9 +7186,9 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="19"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="46" t="s">
-        <v>13</v>
+      <c r="J161" s="43"/>
+      <c r="K161" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
@@ -6627,7 +7211,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="17"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="47"/>
+      <c r="K162" s="48"/>
       <c r="L162" s="20"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
@@ -6674,9 +7258,9 @@
       <c r="K164" s="4"/>
       <c r="L164" s="21"/>
       <c r="M164" s="24"/>
-      <c r="N164" s="53"/>
-      <c r="O164" s="43" t="s">
-        <v>23</v>
+      <c r="N164" s="6"/>
+      <c r="O164" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
@@ -6699,7 +7283,7 @@
       <c r="L165" s="4"/>
       <c r="M165" s="22"/>
       <c r="N165" s="6"/>
-      <c r="O165" s="44"/>
+      <c r="O165" s="46"/>
       <c r="P165" s="29"/>
       <c r="Q165" s="30"/>
       <c r="R165" s="6"/>
@@ -6747,8 +7331,8 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="31"/>
       <c r="R167" s="36"/>
-      <c r="S167" s="43" t="s">
-        <v>28</v>
+      <c r="S167" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="T167" s="7"/>
     </row>
@@ -6771,7 +7355,7 @@
       <c r="P168" s="6"/>
       <c r="Q168" s="30"/>
       <c r="R168" s="7"/>
-      <c r="S168" s="44"/>
+      <c r="S168" s="46"/>
       <c r="T168" s="7"/>
     </row>
     <row r="169" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6815,8 +7399,8 @@
       <c r="P170" s="6"/>
       <c r="Q170" s="31"/>
       <c r="R170" s="36"/>
-      <c r="S170" s="43" t="s">
-        <v>30</v>
+      <c r="S170" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="T170" s="7"/>
     </row>
@@ -6839,7 +7423,7 @@
       <c r="P171" s="6"/>
       <c r="Q171" s="30"/>
       <c r="R171" s="7"/>
-      <c r="S171" s="44"/>
+      <c r="S171" s="46"/>
       <c r="T171" s="7"/>
     </row>
     <row r="172" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6883,8 +7467,8 @@
       <c r="P173" s="6"/>
       <c r="Q173" s="31"/>
       <c r="R173" s="36"/>
-      <c r="S173" s="43" t="s">
-        <v>29</v>
+      <c r="S173" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T173" s="7"/>
     </row>
@@ -6907,7 +7491,7 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="7"/>
-      <c r="S174" s="44"/>
+      <c r="S174" s="46"/>
       <c r="T174" s="7"/>
     </row>
     <row r="175" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -6991,8 +7575,8 @@
       <c r="L178" s="4"/>
       <c r="M178" s="24"/>
       <c r="N178" s="6"/>
-      <c r="O178" s="43" t="s">
-        <v>24</v>
+      <c r="O178" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
@@ -7014,8 +7598,8 @@
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="22"/>
-      <c r="N179" s="53"/>
-      <c r="O179" s="44"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="46"/>
       <c r="P179" s="29"/>
       <c r="Q179" s="30"/>
       <c r="R179" s="6"/>
@@ -7063,8 +7647,8 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="31"/>
       <c r="R181" s="36"/>
-      <c r="S181" s="43" t="s">
-        <v>31</v>
+      <c r="S181" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="T181" s="7"/>
     </row>
@@ -7087,7 +7671,7 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="30"/>
       <c r="R182" s="7"/>
-      <c r="S182" s="44"/>
+      <c r="S182" s="46"/>
       <c r="T182" s="7"/>
     </row>
     <row r="183" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7131,8 +7715,8 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="31"/>
       <c r="R184" s="36"/>
-      <c r="S184" s="43" t="s">
-        <v>32</v>
+      <c r="S184" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="T184" s="7"/>
     </row>
@@ -7155,7 +7739,7 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="30"/>
       <c r="R185" s="7"/>
-      <c r="S185" s="44"/>
+      <c r="S185" s="46"/>
       <c r="T185" s="7"/>
     </row>
     <row r="186" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7199,8 +7783,8 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="31"/>
       <c r="R187" s="36"/>
-      <c r="S187" s="43" t="s">
-        <v>33</v>
+      <c r="S187" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="T187" s="7"/>
     </row>
@@ -7223,7 +7807,7 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="29"/>
       <c r="R188" s="7"/>
-      <c r="S188" s="44"/>
+      <c r="S188" s="46"/>
       <c r="T188" s="7"/>
     </row>
     <row r="189" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -7307,8 +7891,8 @@
       <c r="L192" s="4"/>
       <c r="M192" s="24"/>
       <c r="N192" s="6"/>
-      <c r="O192" s="43" t="s">
-        <v>25</v>
+      <c r="O192" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
@@ -7331,7 +7915,7 @@
       <c r="L193" s="4"/>
       <c r="M193" s="23"/>
       <c r="N193" s="6"/>
-      <c r="O193" s="44"/>
+      <c r="O193" s="46"/>
       <c r="P193" s="29"/>
       <c r="Q193" s="30"/>
       <c r="R193" s="7"/>
@@ -7357,8 +7941,8 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="31"/>
       <c r="R194" s="36"/>
-      <c r="S194" s="43" t="s">
-        <v>37</v>
+      <c r="S194" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="T194" s="7"/>
     </row>
@@ -7381,7 +7965,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="30"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="44"/>
+      <c r="S195" s="46"/>
       <c r="T195" s="7"/>
     </row>
     <row r="196" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7425,8 +8009,8 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="31"/>
       <c r="R197" s="36"/>
-      <c r="S197" s="43" t="s">
-        <v>36</v>
+      <c r="S197" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="T197" s="7"/>
     </row>
@@ -7449,7 +8033,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="7"/>
-      <c r="S198" s="44"/>
+      <c r="S198" s="46"/>
       <c r="T198" s="7"/>
     </row>
     <row r="199" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7489,8 +8073,8 @@
       <c r="L200" s="4"/>
       <c r="M200" s="24"/>
       <c r="N200" s="6"/>
-      <c r="O200" s="43" t="s">
-        <v>26</v>
+      <c r="O200" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
@@ -7513,7 +8097,7 @@
       <c r="L201" s="4"/>
       <c r="M201" s="23"/>
       <c r="N201" s="6"/>
-      <c r="O201" s="44"/>
+      <c r="O201" s="46"/>
       <c r="P201" s="29"/>
       <c r="Q201" s="30"/>
       <c r="R201" s="7"/>
@@ -7539,8 +8123,8 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="31"/>
       <c r="R202" s="36"/>
-      <c r="S202" s="43" t="s">
-        <v>38</v>
+      <c r="S202" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="T202" s="7"/>
     </row>
@@ -7563,7 +8147,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="30"/>
       <c r="R203" s="7"/>
-      <c r="S203" s="44"/>
+      <c r="S203" s="46"/>
       <c r="T203" s="7"/>
     </row>
     <row r="204" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7607,8 +8191,8 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="31"/>
       <c r="R205" s="36"/>
-      <c r="S205" s="43" t="s">
-        <v>39</v>
+      <c r="S205" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="T205" s="7"/>
     </row>
@@ -7631,7 +8215,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
       <c r="R206" s="7"/>
-      <c r="S206" s="44"/>
+      <c r="S206" s="46"/>
       <c r="T206" s="7"/>
     </row>
     <row r="207" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7671,8 +8255,8 @@
       <c r="L208" s="4"/>
       <c r="M208" s="24"/>
       <c r="N208" s="6"/>
-      <c r="O208" s="43" t="s">
-        <v>27</v>
+      <c r="O208" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
@@ -7695,7 +8279,7 @@
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="6"/>
-      <c r="O209" s="44"/>
+      <c r="O209" s="46"/>
       <c r="P209" s="29"/>
       <c r="Q209" s="30"/>
       <c r="R209" s="7"/>
@@ -7721,8 +8305,8 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="31"/>
       <c r="R210" s="36"/>
-      <c r="S210" s="43" t="s">
-        <v>40</v>
+      <c r="S210" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="T210" s="7"/>
     </row>
@@ -7745,7 +8329,7 @@
       <c r="P211" s="6"/>
       <c r="Q211" s="30"/>
       <c r="R211" s="7"/>
-      <c r="S211" s="44"/>
+      <c r="S211" s="46"/>
       <c r="T211" s="7"/>
     </row>
     <row r="212" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7789,8 +8373,8 @@
       <c r="P213" s="6"/>
       <c r="Q213" s="31"/>
       <c r="R213" s="36"/>
-      <c r="S213" s="43" t="s">
-        <v>41</v>
+      <c r="S213" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="T213" s="7"/>
     </row>
@@ -7813,7 +8397,7 @@
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
       <c r="R214" s="7"/>
-      <c r="S214" s="44"/>
+      <c r="S214" s="46"/>
       <c r="T214" s="7"/>
     </row>
     <row r="215" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -7881,9 +8465,9 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="19"/>
-      <c r="J218" s="45"/>
-      <c r="K218" s="46" t="s">
-        <v>14</v>
+      <c r="J218" s="43"/>
+      <c r="K218" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
@@ -7906,7 +8490,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="47"/>
+      <c r="K219" s="48"/>
       <c r="L219" s="20"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
@@ -7954,8 +8538,8 @@
       <c r="L221" s="4"/>
       <c r="M221" s="24"/>
       <c r="N221" s="28"/>
-      <c r="O221" s="43" t="s">
-        <v>23</v>
+      <c r="O221" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P221" s="8"/>
       <c r="Q221" s="8"/>
@@ -7978,7 +8562,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="23"/>
       <c r="N222" s="6"/>
-      <c r="O222" s="44"/>
+      <c r="O222" s="46"/>
       <c r="P222" s="29"/>
       <c r="Q222" s="30"/>
       <c r="R222" s="7"/>
@@ -8004,8 +8588,8 @@
       <c r="P223" s="6"/>
       <c r="Q223" s="31"/>
       <c r="R223" s="36"/>
-      <c r="S223" s="43" t="s">
-        <v>42</v>
+      <c r="S223" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="T223" s="7"/>
     </row>
@@ -8028,7 +8612,7 @@
       <c r="P224" s="6"/>
       <c r="Q224" s="29"/>
       <c r="R224" s="7"/>
-      <c r="S224" s="44"/>
+      <c r="S224" s="46"/>
       <c r="T224" s="7"/>
     </row>
     <row r="225" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8068,8 +8652,8 @@
       <c r="L226" s="4"/>
       <c r="M226" s="24"/>
       <c r="N226" s="28"/>
-      <c r="O226" s="43" t="s">
-        <v>24</v>
+      <c r="O226" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P226" s="8"/>
       <c r="Q226" s="8"/>
@@ -8092,7 +8676,7 @@
       <c r="L227" s="4"/>
       <c r="M227" s="23"/>
       <c r="N227" s="6"/>
-      <c r="O227" s="44"/>
+      <c r="O227" s="46"/>
       <c r="P227" s="29"/>
       <c r="Q227" s="30"/>
       <c r="R227" s="7"/>
@@ -8118,8 +8702,8 @@
       <c r="P228" s="6"/>
       <c r="Q228" s="31"/>
       <c r="R228" s="36"/>
-      <c r="S228" s="43" t="s">
-        <v>43</v>
+      <c r="S228" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="T228" s="7"/>
     </row>
@@ -8142,7 +8726,7 @@
       <c r="P229" s="6"/>
       <c r="Q229" s="29"/>
       <c r="R229" s="7"/>
-      <c r="S229" s="44"/>
+      <c r="S229" s="46"/>
       <c r="T229" s="7"/>
     </row>
     <row r="230" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8182,8 +8766,8 @@
       <c r="L231" s="4"/>
       <c r="M231" s="24"/>
       <c r="N231" s="28"/>
-      <c r="O231" s="43" t="s">
-        <v>25</v>
+      <c r="O231" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
@@ -8207,7 +8791,7 @@
       <c r="L232" s="4"/>
       <c r="M232" s="23"/>
       <c r="N232" s="6"/>
-      <c r="O232" s="44"/>
+      <c r="O232" s="46"/>
       <c r="P232" s="29"/>
       <c r="Q232" s="30"/>
       <c r="R232" s="7"/>
@@ -8234,8 +8818,8 @@
       <c r="P233" s="6"/>
       <c r="Q233" s="31"/>
       <c r="R233" s="36"/>
-      <c r="S233" s="43" t="s">
-        <v>44</v>
+      <c r="S233" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="T233" s="7"/>
     </row>
@@ -8258,7 +8842,7 @@
       <c r="P234" s="6"/>
       <c r="Q234" s="29"/>
       <c r="R234" s="7"/>
-      <c r="S234" s="44"/>
+      <c r="S234" s="46"/>
       <c r="T234" s="7"/>
     </row>
     <row r="235" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8299,8 +8883,8 @@
       <c r="L236" s="4"/>
       <c r="M236" s="24"/>
       <c r="N236" s="28"/>
-      <c r="O236" s="43" t="s">
-        <v>26</v>
+      <c r="O236" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P236" s="8"/>
       <c r="Q236" s="8"/>
@@ -8323,7 +8907,7 @@
       <c r="L237" s="4"/>
       <c r="M237" s="23"/>
       <c r="N237" s="6"/>
-      <c r="O237" s="44"/>
+      <c r="O237" s="46"/>
       <c r="P237" s="29"/>
       <c r="Q237" s="30"/>
       <c r="R237" s="7"/>
@@ -8349,8 +8933,8 @@
       <c r="P238" s="6"/>
       <c r="Q238" s="31"/>
       <c r="R238" s="36"/>
-      <c r="S238" s="43" t="s">
-        <v>45</v>
+      <c r="S238" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="T238" s="7"/>
     </row>
@@ -8373,7 +8957,7 @@
       <c r="P239" s="6"/>
       <c r="Q239" s="29"/>
       <c r="R239" s="7"/>
-      <c r="S239" s="44"/>
+      <c r="S239" s="46"/>
       <c r="T239" s="7"/>
     </row>
     <row r="240" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8413,8 +8997,8 @@
       <c r="L241" s="4"/>
       <c r="M241" s="24"/>
       <c r="N241" s="28"/>
-      <c r="O241" s="43" t="s">
-        <v>27</v>
+      <c r="O241" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
@@ -8437,7 +9021,7 @@
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="6"/>
-      <c r="O242" s="44"/>
+      <c r="O242" s="46"/>
       <c r="P242" s="29"/>
       <c r="Q242" s="30"/>
       <c r="R242" s="7"/>
@@ -8463,8 +9047,8 @@
       <c r="P243" s="6"/>
       <c r="Q243" s="31"/>
       <c r="R243" s="36"/>
-      <c r="S243" s="43" t="s">
-        <v>46</v>
+      <c r="S243" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="T243" s="7"/>
     </row>
@@ -8487,7 +9071,7 @@
       <c r="P244" s="6"/>
       <c r="Q244" s="29"/>
       <c r="R244" s="7"/>
-      <c r="S244" s="44"/>
+      <c r="S244" s="46"/>
       <c r="T244" s="7"/>
     </row>
     <row r="245" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -8569,9 +9153,9 @@
       <c r="C249" s="10"/>
       <c r="D249" s="14"/>
       <c r="E249" s="27"/>
-      <c r="F249" s="48"/>
-      <c r="G249" s="55" t="s">
-        <v>17</v>
+      <c r="F249" s="44"/>
+      <c r="G249" s="49" t="s">
+        <v>16</v>
       </c>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -8594,7 +9178,7 @@
       <c r="D250" s="10"/>
       <c r="E250" s="42"/>
       <c r="F250" s="3"/>
-      <c r="G250" s="56"/>
+      <c r="G250" s="50"/>
       <c r="H250" s="15"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
@@ -8613,8 +9197,8 @@
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
-      <c r="D251" s="54"/>
-      <c r="E251" s="54"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="16"/>
@@ -8635,15 +9219,15 @@
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
-      <c r="D252" s="54"/>
-      <c r="E252" s="54"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="16"/>
       <c r="I252" s="19"/>
-      <c r="J252" s="45"/>
-      <c r="K252" s="46" t="s">
-        <v>12</v>
+      <c r="J252" s="43"/>
+      <c r="K252" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
@@ -8659,14 +9243,14 @@
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="17"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="47"/>
+      <c r="K253" s="48"/>
       <c r="L253" s="20"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
@@ -8681,8 +9265,8 @@
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
-      <c r="D254" s="54"/>
-      <c r="E254" s="54"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -8703,8 +9287,8 @@
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
-      <c r="D255" s="54"/>
-      <c r="E255" s="54"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -8714,8 +9298,8 @@
       <c r="L255" s="21"/>
       <c r="M255" s="24"/>
       <c r="N255" s="28"/>
-      <c r="O255" s="43" t="s">
-        <v>18</v>
+      <c r="O255" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
@@ -8727,8 +9311,8 @@
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -8738,7 +9322,7 @@
       <c r="L256" s="4"/>
       <c r="M256" s="23"/>
       <c r="N256" s="6"/>
-      <c r="O256" s="44"/>
+      <c r="O256" s="46"/>
       <c r="P256" s="38"/>
       <c r="Q256" s="8"/>
       <c r="R256" s="8"/>
@@ -8749,8 +9333,8 @@
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
-      <c r="D257" s="54"/>
-      <c r="E257" s="54"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -8771,8 +9355,8 @@
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
-      <c r="D258" s="54"/>
-      <c r="E258" s="54"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -8786,8 +9370,8 @@
       <c r="P258" s="39"/>
       <c r="Q258" s="40"/>
       <c r="R258" s="41"/>
-      <c r="S258" s="43" t="s">
-        <v>47</v>
+      <c r="S258" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="T258" s="7"/>
     </row>
@@ -8795,8 +9379,8 @@
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
-      <c r="D259" s="54"/>
-      <c r="E259" s="54"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -8810,15 +9394,15 @@
       <c r="P259" s="8"/>
       <c r="Q259" s="8"/>
       <c r="R259" s="9"/>
-      <c r="S259" s="44"/>
+      <c r="S259" s="46"/>
       <c r="T259" s="7"/>
     </row>
     <row r="260" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
-      <c r="D260" s="54"/>
-      <c r="E260" s="54"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -8839,8 +9423,8 @@
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
-      <c r="D261" s="54"/>
-      <c r="E261" s="54"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -8850,8 +9434,8 @@
       <c r="L261" s="4"/>
       <c r="M261" s="24"/>
       <c r="N261" s="28"/>
-      <c r="O261" s="43" t="s">
-        <v>19</v>
+      <c r="O261" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="P261" s="8"/>
       <c r="Q261" s="8"/>
@@ -8863,8 +9447,8 @@
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
-      <c r="D262" s="54"/>
-      <c r="E262" s="54"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -8874,7 +9458,7 @@
       <c r="L262" s="4"/>
       <c r="M262" s="23"/>
       <c r="N262" s="6"/>
-      <c r="O262" s="44"/>
+      <c r="O262" s="46"/>
       <c r="P262" s="38"/>
       <c r="Q262" s="8"/>
       <c r="R262" s="9"/>
@@ -8885,8 +9469,8 @@
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
-      <c r="D263" s="54"/>
-      <c r="E263" s="54"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -8900,8 +9484,8 @@
       <c r="P263" s="39"/>
       <c r="Q263" s="40"/>
       <c r="R263" s="41"/>
-      <c r="S263" s="43" t="s">
-        <v>48</v>
+      <c r="S263" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="T263" s="7"/>
     </row>
@@ -8909,8 +9493,8 @@
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
-      <c r="D264" s="54"/>
-      <c r="E264" s="54"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -8924,15 +9508,15 @@
       <c r="P264" s="8"/>
       <c r="Q264" s="8"/>
       <c r="R264" s="9"/>
-      <c r="S264" s="44"/>
+      <c r="S264" s="46"/>
       <c r="T264" s="7"/>
     </row>
     <row r="265" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
-      <c r="D265" s="54"/>
-      <c r="E265" s="54"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -8953,8 +9537,8 @@
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -8964,8 +9548,8 @@
       <c r="L266" s="4"/>
       <c r="M266" s="24"/>
       <c r="N266" s="28"/>
-      <c r="O266" s="43" t="s">
-        <v>20</v>
+      <c r="O266" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="P266" s="8"/>
       <c r="Q266" s="8"/>
@@ -8977,8 +9561,8 @@
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -8988,7 +9572,7 @@
       <c r="L267" s="4"/>
       <c r="M267" s="23"/>
       <c r="N267" s="6"/>
-      <c r="O267" s="44"/>
+      <c r="O267" s="46"/>
       <c r="P267" s="38"/>
       <c r="Q267" s="8"/>
       <c r="R267" s="9"/>
@@ -8999,8 +9583,8 @@
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
-      <c r="D268" s="54"/>
-      <c r="E268" s="54"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -9014,8 +9598,8 @@
       <c r="P268" s="39"/>
       <c r="Q268" s="40"/>
       <c r="R268" s="41"/>
-      <c r="S268" s="43" t="s">
-        <v>49</v>
+      <c r="S268" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="T268" s="7"/>
     </row>
@@ -9023,8 +9607,8 @@
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
-      <c r="D269" s="54"/>
-      <c r="E269" s="54"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -9038,15 +9622,15 @@
       <c r="P269" s="8"/>
       <c r="Q269" s="8"/>
       <c r="R269" s="9"/>
-      <c r="S269" s="44"/>
+      <c r="S269" s="46"/>
       <c r="T269" s="7"/>
     </row>
     <row r="270" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
-      <c r="D270" s="54"/>
-      <c r="E270" s="54"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -9067,8 +9651,8 @@
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
-      <c r="D271" s="54"/>
-      <c r="E271" s="54"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -9078,8 +9662,8 @@
       <c r="L271" s="4"/>
       <c r="M271" s="24"/>
       <c r="N271" s="28"/>
-      <c r="O271" s="43" t="s">
-        <v>21</v>
+      <c r="O271" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="P271" s="8"/>
       <c r="Q271" s="8"/>
@@ -9091,8 +9675,8 @@
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -9102,7 +9686,7 @@
       <c r="L272" s="4"/>
       <c r="M272" s="23"/>
       <c r="N272" s="6"/>
-      <c r="O272" s="44"/>
+      <c r="O272" s="46"/>
       <c r="P272" s="38"/>
       <c r="Q272" s="8"/>
       <c r="R272" s="9"/>
@@ -9113,8 +9697,8 @@
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
-      <c r="D273" s="54"/>
-      <c r="E273" s="54"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -9128,8 +9712,8 @@
       <c r="P273" s="39"/>
       <c r="Q273" s="40"/>
       <c r="R273" s="41"/>
-      <c r="S273" s="43" t="s">
-        <v>50</v>
+      <c r="S273" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="T273" s="7"/>
     </row>
@@ -9137,8 +9721,8 @@
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
-      <c r="D274" s="54"/>
-      <c r="E274" s="54"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -9152,15 +9736,15 @@
       <c r="P274" s="8"/>
       <c r="Q274" s="8"/>
       <c r="R274" s="9"/>
-      <c r="S274" s="44"/>
+      <c r="S274" s="46"/>
       <c r="T274" s="7"/>
     </row>
     <row r="275" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
-      <c r="D275" s="54"/>
-      <c r="E275" s="54"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
@@ -9181,8 +9765,8 @@
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
-      <c r="D276" s="54"/>
-      <c r="E276" s="54"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
@@ -9192,8 +9776,8 @@
       <c r="L276" s="4"/>
       <c r="M276" s="24"/>
       <c r="N276" s="28"/>
-      <c r="O276" s="43" t="s">
-        <v>22</v>
+      <c r="O276" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="P276" s="8"/>
       <c r="Q276" s="8"/>
@@ -9205,8 +9789,8 @@
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
-      <c r="D277" s="54"/>
-      <c r="E277" s="54"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
@@ -9216,7 +9800,7 @@
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
       <c r="N277" s="6"/>
-      <c r="O277" s="44"/>
+      <c r="O277" s="46"/>
       <c r="P277" s="38"/>
       <c r="Q277" s="8"/>
       <c r="R277" s="9"/>
@@ -9227,8 +9811,8 @@
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
-      <c r="D278" s="54"/>
-      <c r="E278" s="54"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
@@ -9242,8 +9826,8 @@
       <c r="P278" s="39"/>
       <c r="Q278" s="40"/>
       <c r="R278" s="41"/>
-      <c r="S278" s="43" t="s">
-        <v>51</v>
+      <c r="S278" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="T278" s="7"/>
     </row>
@@ -9251,8 +9835,8 @@
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
-      <c r="D279" s="54"/>
-      <c r="E279" s="54"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
@@ -9266,15 +9850,15 @@
       <c r="P279" s="8"/>
       <c r="Q279" s="8"/>
       <c r="R279" s="9"/>
-      <c r="S279" s="44"/>
+      <c r="S279" s="46"/>
       <c r="T279" s="7"/>
     </row>
     <row r="280" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
-      <c r="D280" s="54"/>
-      <c r="E280" s="54"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
@@ -9295,8 +9879,8 @@
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
-      <c r="D281" s="54"/>
-      <c r="E281" s="54"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -9306,8 +9890,8 @@
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
-      <c r="D282" s="54"/>
-      <c r="E282" s="54"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
@@ -9328,15 +9912,15 @@
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
-      <c r="D283" s="54"/>
-      <c r="E283" s="54"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="19"/>
-      <c r="J283" s="45"/>
-      <c r="K283" s="46" t="s">
-        <v>13</v>
+      <c r="J283" s="43"/>
+      <c r="K283" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
@@ -9352,14 +9936,14 @@
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
-      <c r="D284" s="54"/>
-      <c r="E284" s="54"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="17"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="47"/>
+      <c r="K284" s="48"/>
       <c r="L284" s="20"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
@@ -9374,8 +9958,8 @@
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
-      <c r="D285" s="54"/>
-      <c r="E285" s="54"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
@@ -9396,8 +9980,8 @@
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
-      <c r="D286" s="54"/>
-      <c r="E286" s="54"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
@@ -9406,9 +9990,9 @@
       <c r="K286" s="4"/>
       <c r="L286" s="21"/>
       <c r="M286" s="24"/>
-      <c r="N286" s="53"/>
-      <c r="O286" s="43" t="s">
-        <v>23</v>
+      <c r="N286" s="6"/>
+      <c r="O286" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
@@ -9420,8 +10004,8 @@
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
-      <c r="D287" s="54"/>
-      <c r="E287" s="54"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
@@ -9431,7 +10015,7 @@
       <c r="L287" s="4"/>
       <c r="M287" s="22"/>
       <c r="N287" s="6"/>
-      <c r="O287" s="44"/>
+      <c r="O287" s="46"/>
       <c r="P287" s="29"/>
       <c r="Q287" s="30"/>
       <c r="R287" s="6"/>
@@ -9442,8 +10026,8 @@
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
-      <c r="D288" s="54"/>
-      <c r="E288" s="54"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
@@ -9464,8 +10048,8 @@
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
-      <c r="D289" s="54"/>
-      <c r="E289" s="54"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -9479,8 +10063,8 @@
       <c r="P289" s="6"/>
       <c r="Q289" s="31"/>
       <c r="R289" s="36"/>
-      <c r="S289" s="43" t="s">
-        <v>28</v>
+      <c r="S289" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="T289" s="7"/>
     </row>
@@ -9488,8 +10072,8 @@
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
-      <c r="D290" s="54"/>
-      <c r="E290" s="54"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
@@ -9503,15 +10087,15 @@
       <c r="P290" s="6"/>
       <c r="Q290" s="30"/>
       <c r="R290" s="7"/>
-      <c r="S290" s="44"/>
+      <c r="S290" s="46"/>
       <c r="T290" s="7"/>
     </row>
     <row r="291" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
@@ -9532,8 +10116,8 @@
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
-      <c r="D292" s="54"/>
-      <c r="E292" s="54"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -9547,8 +10131,8 @@
       <c r="P292" s="6"/>
       <c r="Q292" s="31"/>
       <c r="R292" s="36"/>
-      <c r="S292" s="43" t="s">
-        <v>30</v>
+      <c r="S292" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="T292" s="7"/>
     </row>
@@ -9556,8 +10140,8 @@
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
-      <c r="D293" s="54"/>
-      <c r="E293" s="54"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -9571,15 +10155,15 @@
       <c r="P293" s="6"/>
       <c r="Q293" s="30"/>
       <c r="R293" s="7"/>
-      <c r="S293" s="44"/>
+      <c r="S293" s="46"/>
       <c r="T293" s="7"/>
     </row>
     <row r="294" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
-      <c r="D294" s="54"/>
-      <c r="E294" s="54"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
@@ -9600,8 +10184,8 @@
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
-      <c r="D295" s="54"/>
-      <c r="E295" s="54"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -9615,8 +10199,8 @@
       <c r="P295" s="6"/>
       <c r="Q295" s="31"/>
       <c r="R295" s="36"/>
-      <c r="S295" s="43" t="s">
-        <v>29</v>
+      <c r="S295" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T295" s="7"/>
     </row>
@@ -9624,8 +10208,8 @@
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
-      <c r="D296" s="54"/>
-      <c r="E296" s="54"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
@@ -9639,15 +10223,15 @@
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
       <c r="R296" s="7"/>
-      <c r="S296" s="44"/>
+      <c r="S296" s="46"/>
       <c r="T296" s="7"/>
     </row>
     <row r="297" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
-      <c r="D297" s="54"/>
-      <c r="E297" s="54"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
@@ -9668,8 +10252,8 @@
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
-      <c r="D298" s="54"/>
-      <c r="E298" s="54"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -9690,8 +10274,8 @@
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
-      <c r="D299" s="54"/>
-      <c r="E299" s="54"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
@@ -9712,8 +10296,8 @@
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
-      <c r="D300" s="54"/>
-      <c r="E300" s="54"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
@@ -9723,8 +10307,8 @@
       <c r="L300" s="4"/>
       <c r="M300" s="24"/>
       <c r="N300" s="6"/>
-      <c r="O300" s="43" t="s">
-        <v>24</v>
+      <c r="O300" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
@@ -9736,8 +10320,8 @@
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
-      <c r="D301" s="54"/>
-      <c r="E301" s="54"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
@@ -9746,8 +10330,8 @@
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
       <c r="M301" s="22"/>
-      <c r="N301" s="53"/>
-      <c r="O301" s="44"/>
+      <c r="N301" s="6"/>
+      <c r="O301" s="46"/>
       <c r="P301" s="29"/>
       <c r="Q301" s="30"/>
       <c r="R301" s="6"/>
@@ -9758,8 +10342,8 @@
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
-      <c r="D302" s="54"/>
-      <c r="E302" s="54"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -9780,8 +10364,8 @@
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
-      <c r="D303" s="54"/>
-      <c r="E303" s="54"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
@@ -9795,8 +10379,8 @@
       <c r="P303" s="6"/>
       <c r="Q303" s="31"/>
       <c r="R303" s="36"/>
-      <c r="S303" s="43" t="s">
-        <v>31</v>
+      <c r="S303" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="T303" s="7"/>
     </row>
@@ -9804,8 +10388,8 @@
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
-      <c r="D304" s="54"/>
-      <c r="E304" s="54"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="10"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -9819,15 +10403,15 @@
       <c r="P304" s="6"/>
       <c r="Q304" s="30"/>
       <c r="R304" s="7"/>
-      <c r="S304" s="44"/>
+      <c r="S304" s="46"/>
       <c r="T304" s="7"/>
     </row>
     <row r="305" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
-      <c r="D305" s="54"/>
-      <c r="E305" s="54"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
@@ -9848,8 +10432,8 @@
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
-      <c r="D306" s="54"/>
-      <c r="E306" s="54"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
@@ -9863,8 +10447,8 @@
       <c r="P306" s="6"/>
       <c r="Q306" s="31"/>
       <c r="R306" s="36"/>
-      <c r="S306" s="43" t="s">
-        <v>32</v>
+      <c r="S306" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="T306" s="7"/>
     </row>
@@ -9872,8 +10456,8 @@
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
-      <c r="D307" s="54"/>
-      <c r="E307" s="54"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
@@ -9887,15 +10471,15 @@
       <c r="P307" s="6"/>
       <c r="Q307" s="30"/>
       <c r="R307" s="7"/>
-      <c r="S307" s="44"/>
+      <c r="S307" s="46"/>
       <c r="T307" s="7"/>
     </row>
     <row r="308" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
-      <c r="D308" s="54"/>
-      <c r="E308" s="54"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="10"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -9916,8 +10500,8 @@
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
-      <c r="D309" s="54"/>
-      <c r="E309" s="54"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -9931,8 +10515,8 @@
       <c r="P309" s="6"/>
       <c r="Q309" s="31"/>
       <c r="R309" s="36"/>
-      <c r="S309" s="43" t="s">
-        <v>33</v>
+      <c r="S309" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="T309" s="7"/>
     </row>
@@ -9940,8 +10524,8 @@
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
-      <c r="D310" s="54"/>
-      <c r="E310" s="54"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
@@ -9955,15 +10539,15 @@
       <c r="P310" s="6"/>
       <c r="Q310" s="29"/>
       <c r="R310" s="7"/>
-      <c r="S310" s="44"/>
+      <c r="S310" s="46"/>
       <c r="T310" s="7"/>
     </row>
     <row r="311" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
-      <c r="D311" s="54"/>
-      <c r="E311" s="54"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
@@ -9984,8 +10568,8 @@
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
-      <c r="D312" s="54"/>
-      <c r="E312" s="54"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -10006,8 +10590,8 @@
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
-      <c r="D313" s="54"/>
-      <c r="E313" s="54"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -10028,8 +10612,8 @@
       <c r="A314" s="10"/>
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
-      <c r="D314" s="54"/>
-      <c r="E314" s="54"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
@@ -10039,8 +10623,8 @@
       <c r="L314" s="4"/>
       <c r="M314" s="24"/>
       <c r="N314" s="6"/>
-      <c r="O314" s="43" t="s">
-        <v>25</v>
+      <c r="O314" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
@@ -10052,8 +10636,8 @@
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
-      <c r="D315" s="54"/>
-      <c r="E315" s="54"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
@@ -10063,7 +10647,7 @@
       <c r="L315" s="4"/>
       <c r="M315" s="23"/>
       <c r="N315" s="6"/>
-      <c r="O315" s="44"/>
+      <c r="O315" s="46"/>
       <c r="P315" s="29"/>
       <c r="Q315" s="30"/>
       <c r="R315" s="7"/>
@@ -10074,8 +10658,8 @@
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
-      <c r="D316" s="54"/>
-      <c r="E316" s="54"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
@@ -10089,8 +10673,8 @@
       <c r="P316" s="6"/>
       <c r="Q316" s="31"/>
       <c r="R316" s="36"/>
-      <c r="S316" s="43" t="s">
-        <v>37</v>
+      <c r="S316" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="T316" s="7"/>
     </row>
@@ -10098,8 +10682,8 @@
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
-      <c r="D317" s="54"/>
-      <c r="E317" s="54"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="10"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -10113,15 +10697,15 @@
       <c r="P317" s="6"/>
       <c r="Q317" s="30"/>
       <c r="R317" s="7"/>
-      <c r="S317" s="44"/>
+      <c r="S317" s="46"/>
       <c r="T317" s="7"/>
     </row>
     <row r="318" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
-      <c r="D318" s="54"/>
-      <c r="E318" s="54"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="10"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -10142,8 +10726,8 @@
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
-      <c r="D319" s="54"/>
-      <c r="E319" s="54"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
@@ -10157,8 +10741,8 @@
       <c r="P319" s="6"/>
       <c r="Q319" s="31"/>
       <c r="R319" s="36"/>
-      <c r="S319" s="43" t="s">
-        <v>36</v>
+      <c r="S319" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="T319" s="7"/>
     </row>
@@ -10166,8 +10750,8 @@
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
-      <c r="D320" s="54"/>
-      <c r="E320" s="54"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="10"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
@@ -10181,15 +10765,15 @@
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
       <c r="R320" s="7"/>
-      <c r="S320" s="44"/>
+      <c r="S320" s="46"/>
       <c r="T320" s="7"/>
     </row>
     <row r="321" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
-      <c r="D321" s="54"/>
-      <c r="E321" s="54"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
@@ -10210,8 +10794,8 @@
       <c r="A322" s="10"/>
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
-      <c r="D322" s="54"/>
-      <c r="E322" s="54"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="10"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
@@ -10221,8 +10805,8 @@
       <c r="L322" s="4"/>
       <c r="M322" s="24"/>
       <c r="N322" s="6"/>
-      <c r="O322" s="43" t="s">
-        <v>26</v>
+      <c r="O322" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
@@ -10234,8 +10818,8 @@
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
-      <c r="D323" s="54"/>
-      <c r="E323" s="54"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="10"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
@@ -10245,7 +10829,7 @@
       <c r="L323" s="4"/>
       <c r="M323" s="23"/>
       <c r="N323" s="6"/>
-      <c r="O323" s="44"/>
+      <c r="O323" s="46"/>
       <c r="P323" s="29"/>
       <c r="Q323" s="30"/>
       <c r="R323" s="7"/>
@@ -10256,8 +10840,8 @@
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
-      <c r="D324" s="54"/>
-      <c r="E324" s="54"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
@@ -10271,8 +10855,8 @@
       <c r="P324" s="6"/>
       <c r="Q324" s="31"/>
       <c r="R324" s="36"/>
-      <c r="S324" s="43" t="s">
-        <v>38</v>
+      <c r="S324" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="T324" s="7"/>
     </row>
@@ -10280,8 +10864,8 @@
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
-      <c r="D325" s="54"/>
-      <c r="E325" s="54"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
@@ -10295,15 +10879,15 @@
       <c r="P325" s="6"/>
       <c r="Q325" s="30"/>
       <c r="R325" s="7"/>
-      <c r="S325" s="44"/>
+      <c r="S325" s="46"/>
       <c r="T325" s="7"/>
     </row>
     <row r="326" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
-      <c r="D326" s="54"/>
-      <c r="E326" s="54"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="10"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
@@ -10324,8 +10908,8 @@
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
-      <c r="D327" s="54"/>
-      <c r="E327" s="54"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -10339,8 +10923,8 @@
       <c r="P327" s="6"/>
       <c r="Q327" s="31"/>
       <c r="R327" s="36"/>
-      <c r="S327" s="43" t="s">
-        <v>39</v>
+      <c r="S327" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="T327" s="7"/>
     </row>
@@ -10348,8 +10932,8 @@
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
-      <c r="D328" s="54"/>
-      <c r="E328" s="54"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
@@ -10363,15 +10947,15 @@
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
       <c r="R328" s="7"/>
-      <c r="S328" s="44"/>
+      <c r="S328" s="46"/>
       <c r="T328" s="7"/>
     </row>
     <row r="329" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
-      <c r="D329" s="54"/>
-      <c r="E329" s="54"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -10392,8 +10976,8 @@
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
-      <c r="D330" s="54"/>
-      <c r="E330" s="54"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
@@ -10403,8 +10987,8 @@
       <c r="L330" s="4"/>
       <c r="M330" s="24"/>
       <c r="N330" s="6"/>
-      <c r="O330" s="43" t="s">
-        <v>27</v>
+      <c r="O330" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
@@ -10416,8 +11000,8 @@
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
-      <c r="D331" s="54"/>
-      <c r="E331" s="54"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
@@ -10427,7 +11011,7 @@
       <c r="L331" s="4"/>
       <c r="M331" s="4"/>
       <c r="N331" s="6"/>
-      <c r="O331" s="44"/>
+      <c r="O331" s="46"/>
       <c r="P331" s="29"/>
       <c r="Q331" s="30"/>
       <c r="R331" s="7"/>
@@ -10438,8 +11022,8 @@
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
-      <c r="D332" s="54"/>
-      <c r="E332" s="54"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
@@ -10453,8 +11037,8 @@
       <c r="P332" s="6"/>
       <c r="Q332" s="31"/>
       <c r="R332" s="36"/>
-      <c r="S332" s="43" t="s">
-        <v>40</v>
+      <c r="S332" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="T332" s="7"/>
     </row>
@@ -10462,8 +11046,8 @@
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
-      <c r="D333" s="54"/>
-      <c r="E333" s="54"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
@@ -10477,15 +11061,15 @@
       <c r="P333" s="6"/>
       <c r="Q333" s="30"/>
       <c r="R333" s="7"/>
-      <c r="S333" s="44"/>
+      <c r="S333" s="46"/>
       <c r="T333" s="7"/>
     </row>
     <row r="334" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A334" s="10"/>
       <c r="B334" s="10"/>
       <c r="C334" s="10"/>
-      <c r="D334" s="54"/>
-      <c r="E334" s="54"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
@@ -10506,8 +11090,8 @@
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
-      <c r="D335" s="54"/>
-      <c r="E335" s="54"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
@@ -10521,8 +11105,8 @@
       <c r="P335" s="6"/>
       <c r="Q335" s="31"/>
       <c r="R335" s="36"/>
-      <c r="S335" s="43" t="s">
-        <v>41</v>
+      <c r="S335" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="T335" s="7"/>
     </row>
@@ -10530,8 +11114,8 @@
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
-      <c r="D336" s="54"/>
-      <c r="E336" s="54"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="10"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -10545,15 +11129,15 @@
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
       <c r="R336" s="7"/>
-      <c r="S336" s="44"/>
+      <c r="S336" s="46"/>
       <c r="T336" s="7"/>
     </row>
     <row r="337" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
-      <c r="D337" s="54"/>
-      <c r="E337" s="54"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="10"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
@@ -10574,8 +11158,8 @@
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
-      <c r="D338" s="54"/>
-      <c r="E338" s="54"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -10585,8 +11169,8 @@
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
-      <c r="D339" s="54"/>
-      <c r="E339" s="54"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="10"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
@@ -10607,15 +11191,15 @@
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
-      <c r="D340" s="54"/>
-      <c r="E340" s="54"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="10"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="19"/>
-      <c r="J340" s="45"/>
-      <c r="K340" s="46" t="s">
-        <v>14</v>
+      <c r="J340" s="43"/>
+      <c r="K340" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="L340" s="4"/>
       <c r="M340" s="4"/>
@@ -10631,14 +11215,14 @@
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
-      <c r="D341" s="54"/>
-      <c r="E341" s="54"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="10"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="47"/>
+      <c r="K341" s="48"/>
       <c r="L341" s="20"/>
       <c r="M341" s="4"/>
       <c r="N341" s="4"/>
@@ -10653,8 +11237,8 @@
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
-      <c r="D342" s="54"/>
-      <c r="E342" s="54"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="10"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
@@ -10675,8 +11259,8 @@
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
-      <c r="D343" s="54"/>
-      <c r="E343" s="54"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="10"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
@@ -10686,8 +11270,8 @@
       <c r="L343" s="4"/>
       <c r="M343" s="24"/>
       <c r="N343" s="28"/>
-      <c r="O343" s="43" t="s">
-        <v>23</v>
+      <c r="O343" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="P343" s="8"/>
       <c r="Q343" s="8"/>
@@ -10699,8 +11283,8 @@
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
-      <c r="D344" s="54"/>
-      <c r="E344" s="54"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -10710,7 +11294,7 @@
       <c r="L344" s="4"/>
       <c r="M344" s="23"/>
       <c r="N344" s="6"/>
-      <c r="O344" s="44"/>
+      <c r="O344" s="46"/>
       <c r="P344" s="29"/>
       <c r="Q344" s="30"/>
       <c r="R344" s="7"/>
@@ -10721,8 +11305,8 @@
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
-      <c r="D345" s="54"/>
-      <c r="E345" s="54"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -10736,8 +11320,8 @@
       <c r="P345" s="6"/>
       <c r="Q345" s="31"/>
       <c r="R345" s="36"/>
-      <c r="S345" s="43" t="s">
-        <v>42</v>
+      <c r="S345" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="T345" s="7"/>
     </row>
@@ -10745,8 +11329,8 @@
       <c r="A346" s="10"/>
       <c r="B346" s="10"/>
       <c r="C346" s="10"/>
-      <c r="D346" s="54"/>
-      <c r="E346" s="54"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -10760,15 +11344,15 @@
       <c r="P346" s="6"/>
       <c r="Q346" s="29"/>
       <c r="R346" s="7"/>
-      <c r="S346" s="44"/>
+      <c r="S346" s="46"/>
       <c r="T346" s="7"/>
     </row>
     <row r="347" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
-      <c r="D347" s="54"/>
-      <c r="E347" s="54"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="10"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -10789,8 +11373,8 @@
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
-      <c r="D348" s="54"/>
-      <c r="E348" s="54"/>
+      <c r="D348" s="10"/>
+      <c r="E348" s="10"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -10800,8 +11384,8 @@
       <c r="L348" s="4"/>
       <c r="M348" s="24"/>
       <c r="N348" s="28"/>
-      <c r="O348" s="43" t="s">
-        <v>24</v>
+      <c r="O348" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="P348" s="8"/>
       <c r="Q348" s="8"/>
@@ -10813,8 +11397,8 @@
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
-      <c r="D349" s="54"/>
-      <c r="E349" s="54"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="10"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -10824,7 +11408,7 @@
       <c r="L349" s="4"/>
       <c r="M349" s="23"/>
       <c r="N349" s="6"/>
-      <c r="O349" s="44"/>
+      <c r="O349" s="46"/>
       <c r="P349" s="29"/>
       <c r="Q349" s="30"/>
       <c r="R349" s="7"/>
@@ -10835,8 +11419,8 @@
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
-      <c r="D350" s="54"/>
-      <c r="E350" s="54"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="10"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -10850,8 +11434,8 @@
       <c r="P350" s="6"/>
       <c r="Q350" s="31"/>
       <c r="R350" s="36"/>
-      <c r="S350" s="43" t="s">
-        <v>43</v>
+      <c r="S350" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="T350" s="7"/>
     </row>
@@ -10859,8 +11443,8 @@
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
-      <c r="D351" s="54"/>
-      <c r="E351" s="54"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="10"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -10874,15 +11458,15 @@
       <c r="P351" s="6"/>
       <c r="Q351" s="29"/>
       <c r="R351" s="7"/>
-      <c r="S351" s="44"/>
+      <c r="S351" s="46"/>
       <c r="T351" s="7"/>
     </row>
     <row r="352" spans="1:20" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
-      <c r="D352" s="54"/>
-      <c r="E352" s="54"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -10903,8 +11487,8 @@
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
-      <c r="D353" s="54"/>
-      <c r="E353" s="54"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -10914,8 +11498,8 @@
       <c r="L353" s="4"/>
       <c r="M353" s="24"/>
       <c r="N353" s="28"/>
-      <c r="O353" s="43" t="s">
-        <v>25</v>
+      <c r="O353" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="P353" s="8"/>
       <c r="Q353" s="8"/>
@@ -10928,8 +11512,8 @@
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
-      <c r="D354" s="54"/>
-      <c r="E354" s="54"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -10939,7 +11523,7 @@
       <c r="L354" s="4"/>
       <c r="M354" s="23"/>
       <c r="N354" s="6"/>
-      <c r="O354" s="44"/>
+      <c r="O354" s="46"/>
       <c r="P354" s="29"/>
       <c r="Q354" s="30"/>
       <c r="R354" s="7"/>
@@ -10951,8 +11535,8 @@
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
-      <c r="D355" s="54"/>
-      <c r="E355" s="54"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -10966,8 +11550,8 @@
       <c r="P355" s="6"/>
       <c r="Q355" s="31"/>
       <c r="R355" s="36"/>
-      <c r="S355" s="43" t="s">
-        <v>44</v>
+      <c r="S355" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="T355" s="7"/>
     </row>
@@ -10975,8 +11559,8 @@
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
-      <c r="D356" s="54"/>
-      <c r="E356" s="54"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
@@ -10990,15 +11574,15 @@
       <c r="P356" s="6"/>
       <c r="Q356" s="29"/>
       <c r="R356" s="7"/>
-      <c r="S356" s="44"/>
+      <c r="S356" s="46"/>
       <c r="T356" s="7"/>
     </row>
     <row r="357" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
-      <c r="D357" s="54"/>
-      <c r="E357" s="54"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -11020,8 +11604,8 @@
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
-      <c r="D358" s="54"/>
-      <c r="E358" s="54"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="10"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -11031,8 +11615,8 @@
       <c r="L358" s="4"/>
       <c r="M358" s="24"/>
       <c r="N358" s="28"/>
-      <c r="O358" s="43" t="s">
-        <v>26</v>
+      <c r="O358" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="P358" s="8"/>
       <c r="Q358" s="8"/>
@@ -11044,8 +11628,8 @@
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
-      <c r="D359" s="54"/>
-      <c r="E359" s="54"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
@@ -11055,7 +11639,7 @@
       <c r="L359" s="4"/>
       <c r="M359" s="23"/>
       <c r="N359" s="6"/>
-      <c r="O359" s="44"/>
+      <c r="O359" s="46"/>
       <c r="P359" s="29"/>
       <c r="Q359" s="30"/>
       <c r="R359" s="7"/>
@@ -11066,8 +11650,8 @@
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
-      <c r="D360" s="54"/>
-      <c r="E360" s="54"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
@@ -11081,8 +11665,8 @@
       <c r="P360" s="6"/>
       <c r="Q360" s="31"/>
       <c r="R360" s="36"/>
-      <c r="S360" s="43" t="s">
-        <v>45</v>
+      <c r="S360" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="T360" s="7"/>
     </row>
@@ -11090,8 +11674,8 @@
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
-      <c r="D361" s="54"/>
-      <c r="E361" s="54"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
@@ -11105,15 +11689,15 @@
       <c r="P361" s="6"/>
       <c r="Q361" s="29"/>
       <c r="R361" s="7"/>
-      <c r="S361" s="44"/>
+      <c r="S361" s="46"/>
       <c r="T361" s="7"/>
     </row>
     <row r="362" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
-      <c r="D362" s="54"/>
-      <c r="E362" s="54"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="10"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
@@ -11134,8 +11718,8 @@
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
-      <c r="D363" s="54"/>
-      <c r="E363" s="54"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -11145,8 +11729,8 @@
       <c r="L363" s="4"/>
       <c r="M363" s="24"/>
       <c r="N363" s="28"/>
-      <c r="O363" s="43" t="s">
-        <v>27</v>
+      <c r="O363" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="P363" s="8"/>
       <c r="Q363" s="8"/>
@@ -11158,8 +11742,8 @@
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
-      <c r="D364" s="54"/>
-      <c r="E364" s="54"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -11169,7 +11753,7 @@
       <c r="L364" s="4"/>
       <c r="M364" s="4"/>
       <c r="N364" s="6"/>
-      <c r="O364" s="44"/>
+      <c r="O364" s="46"/>
       <c r="P364" s="29"/>
       <c r="Q364" s="30"/>
       <c r="R364" s="7"/>
@@ -11180,8 +11764,8 @@
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
-      <c r="D365" s="54"/>
-      <c r="E365" s="54"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
@@ -11195,8 +11779,8 @@
       <c r="P365" s="6"/>
       <c r="Q365" s="31"/>
       <c r="R365" s="36"/>
-      <c r="S365" s="43" t="s">
-        <v>46</v>
+      <c r="S365" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="T365" s="7"/>
     </row>
@@ -11204,8 +11788,8 @@
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
-      <c r="D366" s="54"/>
-      <c r="E366" s="54"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="10"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
@@ -11219,15 +11803,15 @@
       <c r="P366" s="6"/>
       <c r="Q366" s="29"/>
       <c r="R366" s="7"/>
-      <c r="S366" s="44"/>
+      <c r="S366" s="46"/>
       <c r="T366" s="7"/>
     </row>
     <row r="367" spans="1:23" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A367" s="10"/>
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
-      <c r="D367" s="54"/>
-      <c r="E367" s="54"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -11248,7 +11832,7 @@
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
-      <c r="D368" s="54"/>
+      <c r="D368" s="10"/>
       <c r="E368" s="10"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -11268,65 +11852,37 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="S355:S356"/>
-    <mergeCell ref="O358:O359"/>
-    <mergeCell ref="S360:S361"/>
-    <mergeCell ref="O363:O364"/>
-    <mergeCell ref="S365:S366"/>
-    <mergeCell ref="K283:K284"/>
-    <mergeCell ref="O286:O287"/>
-    <mergeCell ref="S289:S290"/>
-    <mergeCell ref="S292:S293"/>
-    <mergeCell ref="S295:S296"/>
-    <mergeCell ref="O300:O301"/>
-    <mergeCell ref="S303:S304"/>
-    <mergeCell ref="S306:S307"/>
-    <mergeCell ref="S309:S310"/>
-    <mergeCell ref="O236:O237"/>
-    <mergeCell ref="S238:S239"/>
-    <mergeCell ref="O241:O242"/>
-    <mergeCell ref="S243:S244"/>
-    <mergeCell ref="G249:G250"/>
-    <mergeCell ref="K252:K253"/>
-    <mergeCell ref="O255:O256"/>
-    <mergeCell ref="S258:S259"/>
-    <mergeCell ref="O261:O262"/>
-    <mergeCell ref="S210:S211"/>
-    <mergeCell ref="S213:S214"/>
-    <mergeCell ref="K218:K219"/>
-    <mergeCell ref="O221:O222"/>
-    <mergeCell ref="S223:S224"/>
-    <mergeCell ref="O226:O227"/>
-    <mergeCell ref="S228:S229"/>
-    <mergeCell ref="O231:O232"/>
-    <mergeCell ref="S233:S234"/>
-    <mergeCell ref="S184:S185"/>
-    <mergeCell ref="S187:S188"/>
-    <mergeCell ref="O192:O193"/>
-    <mergeCell ref="S194:S195"/>
-    <mergeCell ref="S197:S198"/>
-    <mergeCell ref="O200:O201"/>
-    <mergeCell ref="S202:S203"/>
-    <mergeCell ref="S205:S206"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="O154:O155"/>
-    <mergeCell ref="S156:S157"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="O164:O165"/>
-    <mergeCell ref="S167:S168"/>
-    <mergeCell ref="S170:S171"/>
-    <mergeCell ref="S173:S174"/>
-    <mergeCell ref="O178:O179"/>
-    <mergeCell ref="S181:S182"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="O133:O134"/>
-    <mergeCell ref="S136:S137"/>
-    <mergeCell ref="O139:O140"/>
-    <mergeCell ref="S141:S142"/>
-    <mergeCell ref="O144:O145"/>
-    <mergeCell ref="S146:S147"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="S151:S152"/>
+    <mergeCell ref="K340:K341"/>
+    <mergeCell ref="S345:S346"/>
+    <mergeCell ref="O348:O349"/>
+    <mergeCell ref="S350:S351"/>
+    <mergeCell ref="O353:O354"/>
+    <mergeCell ref="S263:S264"/>
+    <mergeCell ref="O266:O267"/>
+    <mergeCell ref="S268:S269"/>
+    <mergeCell ref="O271:O272"/>
+    <mergeCell ref="S273:S274"/>
+    <mergeCell ref="O276:O277"/>
+    <mergeCell ref="S278:S279"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="S107:S108"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="S117:S118"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="O100:O101"/>
     <mergeCell ref="S89:S90"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G6:G7"/>
@@ -11351,25 +11907,65 @@
     <mergeCell ref="S15:S16"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="O18:O19"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="S92:S93"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="S107:S108"/>
-    <mergeCell ref="S112:S113"/>
-    <mergeCell ref="S117:S118"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="O133:O134"/>
+    <mergeCell ref="S136:S137"/>
+    <mergeCell ref="O139:O140"/>
+    <mergeCell ref="S141:S142"/>
+    <mergeCell ref="O144:O145"/>
+    <mergeCell ref="S146:S147"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="S151:S152"/>
+    <mergeCell ref="O154:O155"/>
+    <mergeCell ref="S156:S157"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="O164:O165"/>
+    <mergeCell ref="S167:S168"/>
+    <mergeCell ref="S170:S171"/>
+    <mergeCell ref="S173:S174"/>
+    <mergeCell ref="O178:O179"/>
+    <mergeCell ref="S181:S182"/>
+    <mergeCell ref="S184:S185"/>
+    <mergeCell ref="S187:S188"/>
+    <mergeCell ref="O192:O193"/>
+    <mergeCell ref="S194:S195"/>
+    <mergeCell ref="S197:S198"/>
+    <mergeCell ref="O200:O201"/>
+    <mergeCell ref="S202:S203"/>
+    <mergeCell ref="S205:S206"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="S210:S211"/>
+    <mergeCell ref="S213:S214"/>
+    <mergeCell ref="K218:K219"/>
+    <mergeCell ref="O221:O222"/>
+    <mergeCell ref="S223:S224"/>
+    <mergeCell ref="O226:O227"/>
+    <mergeCell ref="S228:S229"/>
+    <mergeCell ref="O231:O232"/>
+    <mergeCell ref="S233:S234"/>
+    <mergeCell ref="O236:O237"/>
+    <mergeCell ref="S238:S239"/>
+    <mergeCell ref="O241:O242"/>
+    <mergeCell ref="S243:S244"/>
+    <mergeCell ref="G249:G250"/>
+    <mergeCell ref="K252:K253"/>
+    <mergeCell ref="O255:O256"/>
+    <mergeCell ref="S258:S259"/>
+    <mergeCell ref="O261:O262"/>
+    <mergeCell ref="S355:S356"/>
+    <mergeCell ref="O358:O359"/>
+    <mergeCell ref="S360:S361"/>
+    <mergeCell ref="O363:O364"/>
+    <mergeCell ref="S365:S366"/>
+    <mergeCell ref="K283:K284"/>
+    <mergeCell ref="O286:O287"/>
+    <mergeCell ref="S289:S290"/>
+    <mergeCell ref="S292:S293"/>
+    <mergeCell ref="S295:S296"/>
+    <mergeCell ref="O300:O301"/>
+    <mergeCell ref="S303:S304"/>
+    <mergeCell ref="S306:S307"/>
+    <mergeCell ref="S309:S310"/>
     <mergeCell ref="O314:O315"/>
     <mergeCell ref="S316:S317"/>
     <mergeCell ref="S319:S320"/>
@@ -11380,18 +11976,6 @@
     <mergeCell ref="S332:S333"/>
     <mergeCell ref="S335:S336"/>
     <mergeCell ref="O343:O344"/>
-    <mergeCell ref="S345:S346"/>
-    <mergeCell ref="O348:O349"/>
-    <mergeCell ref="S350:S351"/>
-    <mergeCell ref="O353:O354"/>
-    <mergeCell ref="S263:S264"/>
-    <mergeCell ref="O266:O267"/>
-    <mergeCell ref="S268:S269"/>
-    <mergeCell ref="O271:O272"/>
-    <mergeCell ref="S273:S274"/>
-    <mergeCell ref="O276:O277"/>
-    <mergeCell ref="S278:S279"/>
-    <mergeCell ref="K340:K341"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11401,40 +11985,1880 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134272CE-DA59-4305-9FB4-9CAB030C1C2E}">
-  <dimension ref="A2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9810CC-7729-4E50-999D-C1753B330690}">
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E71476-DF26-42E6-BCD7-95B4AD4804AD}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134272CE-DA59-4305-9FB4-9CAB030C1C2E}">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{DB513683-C7CF-4C18-837C-5F910574F5DC}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{DB513683-C7CF-4C18-837C-5F910574F5DC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8841E9B1-6443-4E29-9035-98C5BB76E7EA}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{BF2164C5-31B0-4E3B-991F-A05CB66C8C0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>